--- a/TestFiles/sample1/words/word_7.xlsx
+++ b/TestFiles/sample1/words/word_7.xlsx
@@ -388,10 +388,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4438311000000006</v>
+        <v>0.4438310999999988</v>
       </c>
       <c r="B2">
-        <v>0.6118633000000013</v>
+        <v>0.6118632999999996</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -399,10 +399,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7001814000000017</v>
+        <v>0.7001814</v>
       </c>
       <c r="B3">
-        <v>0.7803436000000019</v>
+        <v>0.7803436000000001</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8922386000000007</v>
+        <v>0.8922385999999989</v>
       </c>
       <c r="B4">
-        <v>0.9962966000000009</v>
+        <v>0.9962965999999991</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.196035</v>
+        <v>1.196034999999998</v>
       </c>
       <c r="B5">
-        <v>1.276121700000001</v>
+        <v>1.276121699999999</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.388464300000001</v>
+        <v>1.388464299999999</v>
       </c>
       <c r="B6">
-        <v>1.5084844</v>
+        <v>1.508484399999999</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
